--- a/public/reports/5800 - Фондација Тамара Мисирлић/2025/11/prepaid/complete_report_Fondacija_Tamara_Misirlic_prepaid_11_2025.xlsx
+++ b/public/reports/5800 - Фондација Тамара Мисирлић/2025/11/prepaid/complete_report_Fondacija_Tamara_Misirlic_prepaid_11_2025.xlsx
@@ -865,7 +865,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>9</v>
